--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reika\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AA92D0-5443-4EC5-8DCD-BF68ED94FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1444D-46F7-4A5A-AA5C-DDD28E7D26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CD22105E-26BC-4A3E-87CD-0FF40228D82D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>抽出列</t>
     <rPh sb="0" eb="2">
@@ -70,20 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK件数:12</t>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG件数　：11</t>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>合計:２３</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -115,6 +101,31 @@
     <t>正規化</t>
     <rPh sb="0" eb="3">
       <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>([^:]+)$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優勝者:ずんだもん</t>
+    <rPh sb="0" eb="3">
+      <t>ユウショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール件数:12</t>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウト件数　：11</t>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,12 +185,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -195,6 +206,35 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -203,9 +243,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -216,9 +254,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -237,15 +273,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -254,6 +281,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,93 +605,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A282D9-F21F-406B-93FC-7484EA4BA308}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/regex-match?text="&amp;_xlfn.ENCODEURL($A2)&amp;"&amp;regex="&amp;_xlfn.ENCODEURL($B2))</f>
-        <v>12</v>
+        <v>ずんだもん</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>ASC(C2)</f>
+        <v>ずんだもん</v>
+      </c>
+      <c r="F2" s="5" t="str" cm="1">
+        <f t="array" ref="F2:I2">TRANSPOSE(D2:D5)</f>
+        <v>ずんだもん</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="str" cm="1">
-        <f t="array" ref="F2:H2">TRANSPOSE(D2:D4)</f>
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="str">
+      <c r="H2" s="6" t="str">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="I2" s="7" t="str">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/regex-match?text="&amp;_xlfn.ENCODEURL($A3)&amp;"&amp;regex="&amp;_xlfn.ENCODEURL($B3))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D4" si="0">ASC(C3)</f>
-        <v>11</v>
+        <f>ASC(C3)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/regex-match?text="&amp;_xlfn.ENCODEURL($A4)&amp;"&amp;regex="&amp;_xlfn.ENCODEURL($B4))</f>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>ASC(C4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/regex-match?text="&amp;_xlfn.ENCODEURL($A5)&amp;"&amp;regex="&amp;_xlfn.ENCODEURL($B5))</f>
         <v>２３</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D5" s="1" t="str">
+        <f>ASC(C5)</f>
         <v>23</v>
       </c>
     </row>
